--- a/data/Angel RodriguezT3-2024.xlsx
+++ b/data/Angel RodriguezT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>3467.53756687</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -874,6 +876,7 @@
         <v>0.00261288</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="D29" s="6" t="inlineStr">
         <is>
@@ -899,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,6 +915,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -919,6 +924,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -926,6 +932,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1243,6 +1250,7 @@
         <v>0.08137214</v>
       </c>
     </row>
+    <row r="32"/>
     <row r="33">
       <c r="C33" s="6" t="inlineStr">
         <is>
@@ -1268,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,6 +1289,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1288,6 +1298,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1295,6 +1306,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1586,6 +1598,7 @@
         <v>0.00051294</v>
       </c>
     </row>
+    <row r="30"/>
     <row r="31">
       <c r="C31" s="6" t="inlineStr">
         <is>
